--- a/biology/Botanique/Scabieuse_à_trois_étamines/Scabieuse_à_trois_étamines.xlsx
+++ b/biology/Botanique/Scabieuse_à_trois_étamines/Scabieuse_à_trois_étamines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scabieuse_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Scabieuse_à_trois_étamines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa triandra
-La scabieuse à trois étamines (Scabiosa triandra) encore appelée scabieuse de Gramont est une espèce de plante herbacée vivace de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliacées selon la classification phylogénétique.
+La scabieuse à trois étamines (Scabiosa triandra) encore appelée scabieuse de Gramont est une espèce de plante herbacée vivace de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliacées selon la classification phylogénétique.
 </t>
         </is>
       </c>
